--- a/src/test/java/TestData/data.xlsx
+++ b/src/test/java/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkosi/Projects/Automation2025/firstGroup2025/src/test/java/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C64ADE-F78D-B24D-AC26-CCDFE78EC342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525BF031-FCE8-7D49-822A-7DF402D1ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37080" yWindow="1640" windowWidth="33600" windowHeight="18940" xr2:uid="{B8A52318-12D5-3B46-8F7E-8A17FF9AA0D3}"/>
   </bookViews>

--- a/src/test/java/TestData/data.xlsx
+++ b/src/test/java/TestData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkosi/Projects/Automation2025/firstGroup2025/src/test/java/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525BF031-FCE8-7D49-822A-7DF402D1ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E3521-80C2-9E4E-BA17-4D1A241C4410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="1640" windowWidth="33600" windowHeight="18940" xr2:uid="{B8A52318-12D5-3B46-8F7E-8A17FF9AA0D3}"/>
+    <workbookView xWindow="38400" yWindow="2660" windowWidth="33600" windowHeight="18940" xr2:uid="{B8A52318-12D5-3B46-8F7E-8A17FF9AA0D3}"/>
   </bookViews>
   <sheets>
     <sheet name="login Details" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Password</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Nkosi</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Cele</t>
+  </si>
+  <si>
+    <t>standard_userNkosi</t>
   </si>
 </sst>
 </file>
@@ -502,12 +502,12 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,7 +521,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -531,35 +531,25 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -569,17 +559,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -689,13 +675,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <v>2094</v>

--- a/src/test/java/TestData/data.xlsx
+++ b/src/test/java/TestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkosi/Projects/Automation2025/firstGroup2025/src/test/java/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E3521-80C2-9E4E-BA17-4D1A241C4410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54BB94A-5DCA-E04B-9FDB-C166B9CEA856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2660" windowWidth="33600" windowHeight="18940" xr2:uid="{B8A52318-12D5-3B46-8F7E-8A17FF9AA0D3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Cele</t>
-  </si>
-  <si>
-    <t>standard_userNkosi</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +518,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
